--- a/contenu/specifications fonctionnelles/spécifications fonctionnelles.xlsx
+++ b/contenu/specifications fonctionnelles/spécifications fonctionnelles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thamon2021\Desktop\Rapport\rapport-alternance\contenu\specifications fonctionnelles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D012D9-97A7-407A-9C04-664A8EF45EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4222C0BE-B1E0-483E-9B7C-15D6BD987446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Version</t>
   </si>
@@ -42,76 +42,106 @@
     <t>Gestion des présences</t>
   </si>
   <si>
-    <t>création d'un écran dédié</t>
-  </si>
-  <si>
-    <t>création du tableau</t>
-  </si>
-  <si>
     <t>gestion des présences</t>
   </si>
   <si>
     <t>filtrage des données</t>
   </si>
   <si>
-    <t>affichage des dates</t>
-  </si>
-  <si>
     <t>Visuel d'une case présence</t>
   </si>
   <si>
-    <t>affichage de l'intervenant</t>
-  </si>
-  <si>
-    <t>sélection d'un intervenant</t>
-  </si>
-  <si>
     <t>Lorsqu'un intervenant est selectionné, son trigramme est affiché dans la case présence</t>
   </si>
   <si>
     <t>Le nombre de colonnes dates est paramétrable via un "range-calendar"</t>
   </si>
   <si>
-    <t>Un filtre doit pouvoir etre appliqué sur les colonnes équipes et permanence</t>
-  </si>
-  <si>
-    <t>Une présence est le croisement d'une équipe et d'une date</t>
-  </si>
-  <si>
-    <t>Le tableau de gestion doit comporter les colonnes "équipes" (listant les équipes),"permanence"(booleen à savoir si l'équipe doit avoir une présence permanente ou pas), les dates du calendrier (calendrier paramétrable)</t>
-  </si>
-  <si>
-    <t>Création d'un écran "Présences" accessible depuis le menu précinpale de la page d'acceuil via un lien dans la nav barre</t>
-  </si>
-  <si>
-    <t>(selon role) En cliquant (clique gauche) sur une case présence, on peut selectionner un intervenant de la liste via un "dropdown"</t>
-  </si>
-  <si>
-    <t>étendre</t>
-  </si>
-  <si>
-    <t>(selon roles) via un clique droit sur une présence, un menu contextuel apparait, proposant d'étendre l'intervenant sélectionné sur plusieurs dates (via calendar)</t>
-  </si>
-  <si>
-    <t>à une date donnée, si aucun membre de l'équipe n'est présent, un background orange est affiché sur la case présence</t>
-  </si>
-  <si>
-    <t>background color des case présence (orange)</t>
-  </si>
-  <si>
-    <t>background color des case présence (jaune)</t>
-  </si>
-  <si>
-    <t>background color des case présence (rouge)</t>
-  </si>
-  <si>
     <t>1.10.0</t>
   </si>
   <si>
-    <t>à une date donnée, si un seul membre de l'équipe nest présent,ou si un intervenant sélectionné est present seleument la demi-journée, un background jaune est affiché sur la case présence</t>
-  </si>
-  <si>
-    <t>à une date donnée, si un intervenant selectionné est absent, un background rouge est affiché sur la case présence</t>
+    <t>Fonctionnalité d'export</t>
+  </si>
+  <si>
+    <t>Gestion des rôles</t>
+  </si>
+  <si>
+    <t>(selon rôles) En cliquant (clique gauche) sur une case présence, on peut selectionner un intervenant de la liste via un "dropdown"</t>
+  </si>
+  <si>
+    <t>Création d'un écran dédié</t>
+  </si>
+  <si>
+    <t>Création du tableau</t>
+  </si>
+  <si>
+    <t>Affichage des dates</t>
+  </si>
+  <si>
+    <t>Sélection d'un intervenant</t>
+  </si>
+  <si>
+    <t>Etendre</t>
+  </si>
+  <si>
+    <t>Affichage de l'intervenant</t>
+  </si>
+  <si>
+    <t>Background color des case présence (orange)</t>
+  </si>
+  <si>
+    <t>Background color des case présence (jaune)</t>
+  </si>
+  <si>
+    <t>Background color des case présence (rouge)</t>
+  </si>
+  <si>
+    <t>Télécharger un fichier excel</t>
+  </si>
+  <si>
+    <t>Gestion rôles "utilisateur"</t>
+  </si>
+  <si>
+    <t>Gestion rôles "manager"</t>
+  </si>
+  <si>
+    <t>Gestion rôles "superviseur" et "administrateur"</t>
+  </si>
+  <si>
+    <t>A une date donnée, si aucun membre de l'équipe n'est présent, un background orange est affiché sur la case présence</t>
+  </si>
+  <si>
+    <t>A une date donnée, si un intervenant selectionné est absent, un background rouge est affiché sur la case présence</t>
+  </si>
+  <si>
+    <t>Création d'un écran "Présences" accessible depuis le menu principal de la page d'acceuil via un lien dans la "nav barre"</t>
+  </si>
+  <si>
+    <t>Le tableau de gestion doit comporter les colonnes "équipes" (listant les équipes),"permanence"(booleen, à savoir si l'équipe doit avoir une présence permanente ou pas), les dates du calendrier (calendrier paramétrable)</t>
+  </si>
+  <si>
+    <t>Une case présence est le croisement d'une équipe et d'une date</t>
+  </si>
+  <si>
+    <t>Un filtre doit pouvoir etre appliqué sur les colonnes "équipes" et" permanence"</t>
+  </si>
+  <si>
+    <t>(selon rôles) Via un clique droit sur une présence, un menu contextuel apparait, proposant d'étendre l'intervenant sélectionné, sur plusieurs dates successives (via calendar)</t>
+  </si>
+  <si>
+    <t>A une date donnée, si un seul membre de l'équipe est présent, ou si un intervenant sélectionné est present seleument la demi-journée, un background jaune est affiché sur la case présence</t>
+  </si>
+  <si>
+    <t>(selon rôles) Un bouton "exporter" est disponible pour pouvoir télécharger les présences filtrées dans une fichier excel</t>
+  </si>
+  <si>
+    <t>Le rôle "utilisateur" n'a accès qu'en consultation à l'écran présence. L'écran est filtré par défaut sur les équipes dont il est membre, et ayant un attribut "permance". Il n'a pas accés au bouton "exporter"</t>
+  </si>
+  <si>
+    <t>Le rôle "manager" à accès aux fonctionnalités "sélection d'un intervenant" , "étendre", et "télécharger un fichier excel". L'écran est filtré par défaut sur les équipes dont il est membres et ayant un attribut "permance".</t>
+  </si>
+  <si>
+    <t>Les rôles "superviseur" et "administrateur" ont accès à toutes les fonctionnalités. L'écran est filtré par défaut sur les équipes ayant un attribut "permance".</t>
   </si>
 </sst>
 </file>
@@ -149,12 +179,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD60093"/>
+        <fgColor rgb="FFA800E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -162,16 +192,228 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +422,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA800E6"/>
       <color rgb="FFD60093"/>
     </mruColors>
   </colors>
@@ -457,186 +700,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:E15"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="87.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
+      <c r="E19" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
